--- a/TUMLM/TUMLM_sign_up.xlsx
+++ b/TUMLM/TUMLM_sign_up.xlsx
@@ -20,39 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Technology University Sign up</t>
   </si>
   <si>
-    <t xml:space="preserve">One of the following</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Real Name</t>
+    <t xml:space="preserve">Name</t>
   </si>
   <si>
     <t xml:space="preserve">Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Date of birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student ID Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRC Number</t>
+    <t xml:space="preserve">Phone</t>
   </si>
   <si>
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Confirm password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">security code</t>
+    <t xml:space="preserve">Activated Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
   </si>
 </sst>
 </file>
@@ -139,7 +127,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -158,10 +146,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -188,18 +172,16 @@
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="14.38"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="7" style="1" width="11.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="1" style="1" width="11.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -211,48 +193,40 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
-      <c r="E2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="6" customFormat="true" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="3" s="5" customFormat="true" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
